--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1614432.820084224</v>
+        <v>1702273.476646624</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954775</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5831418.138252857</v>
+        <v>6367567.494490374</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>310.5122002751352</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>63.91196241212675</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7.264602967362011</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>37.81530824659584</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>84.69562212127691</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>102.3050349095835</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1062,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>87.55881455681056</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>350.3346115241044</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1142,16 +1144,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.56453789817022</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1345,10 +1347,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>78.47678022721499</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>86.91406253606281</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U11" t="n">
-        <v>165.7451841027734</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1530,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.939983497864</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>90.32734763589576</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>113.7218216744508</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>301.0211677141899</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307492</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>124.4124267272028</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.92574903168634</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791316482</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800264</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170844</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884119</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>113.7218216744501</v>
       </c>
     </row>
     <row r="26">
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2773,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>108.5103196251634</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>2.008513159456065</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>50.38971918733537</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>130.6556207749485</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3746,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.58733247286781</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3907,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>14.14416275345378</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3986,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>252.7815740170826</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>122.922967725953</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1415.517618276921</v>
+        <v>555.2911052642175</v>
       </c>
       <c r="C2" t="n">
-        <v>1381.415549500749</v>
+        <v>521.1890364880448</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.858011710722</v>
+        <v>489.3196557028934</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>459.5853149015927</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>2669.245775882865</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>2250.103312462176</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1841.817188761829</v>
+        <v>868.9397924108188</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>2018.283117621067</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M3" t="n">
-        <v>2018.283117621067</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>2018.283117621067</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>2018.283117621067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>2129.321887799353</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
-        <v>403.0375283363599</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>226.3304742981161</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>60.73919932394372</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>433.7175721270257</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>395.5202910698582</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>648.8602641703436</v>
+        <v>1668.990785889678</v>
       </c>
       <c r="C5" t="n">
-        <v>210.7177913537669</v>
+        <v>1230.848313073101</v>
       </c>
       <c r="D5" t="n">
-        <v>107.3793722531775</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187676</v>
+        <v>1169.244591486649</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>1179.226652594814</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>1840.066707136593</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>1773.889698385741</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355598</v>
+        <v>1758.787639005456</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.159834655251</v>
+        <v>1754.541919345513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>972.3985859291674</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="M6" t="n">
-        <v>79.46488968908616</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="N6" t="n">
-        <v>79.46488968908616</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="O6" t="n">
-        <v>740.3049442308645</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="P6" t="n">
-        <v>1401.144998772643</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>871.4687364409333</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>698.9070249241582</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>533.0290321256809</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>266.2978593068801</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>684.5077410748412</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255754</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1586.250411413399</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.91966063918</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2634.504334502149</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1808.125184926108</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1536.0987805124</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1290.707025845812</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1063.28735515992</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.910269352854</v>
+        <v>1270.144995079233</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4811,13 +4813,13 @@
         <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4835,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y8" t="n">
-        <v>2617.209839837762</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9595414948409</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>377.9595414948409</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>377.9595414948409</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>377.9595414948409</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4993,7 +4995,7 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2164.252715036267</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
         <v>1877.297206906698</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1358.046086889702</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>919.9036140731255</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>483.99382924757</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>483.99382924757</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677765</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677765</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>750.690595409401</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>1445.254791162025</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M11" t="n">
-        <v>2139.818986914648</v>
+        <v>2093.658967439508</v>
       </c>
       <c r="N11" t="n">
-        <v>2806.319982838882</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2806.319982838882</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2806.319982838882</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2806.319982838882</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022719</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.668109022719</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>2555.24873114113</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2192.631781074957</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2192.631781074957</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2192.631781074957</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1784.34565737461</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>380.68472462299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1061.418244693367</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.418244693367</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.418244693367</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.418244693367</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.418244693367</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797618</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C13" t="n">
-        <v>744.2024157797618</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D13" t="n">
-        <v>578.3244229812846</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E13" t="n">
-        <v>578.3244229812846</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F13" t="n">
-        <v>401.6173689430381</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G13" t="n">
-        <v>236.0260939688657</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677765</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>4571.632850176916</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>4284.677342047346</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>4012.650937633638</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>3767.25918296705</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1363.953402140615</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>925.8109293240381</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>489.9011444984825</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>56.12639965677765</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677765</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677765</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>750.690595409401</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M14" t="n">
-        <v>750.690595409401</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>750.690595409401</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127231</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085826</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.668109022719</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>2502.600881895758</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>2502.600881895758</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2198.539096325869</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2198.539096325869</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2198.539096325869</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1790.252972625523</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>380.68472462299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>380.68472462299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1024.801965382963</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>1024.801965382963</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N15" t="n">
-        <v>1024.801965382963</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1135.184560268663</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C16" t="n">
-        <v>962.6228487518875</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7448559534103</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E16" t="n">
-        <v>626.9868522041475</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659037</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917313</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821059</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2672.786009559577</v>
+        <v>2571.833510972685</v>
       </c>
       <c r="T16" t="n">
-        <v>2426.906563138033</v>
+        <v>2325.954064551141</v>
       </c>
       <c r="U16" t="n">
-        <v>2148.473562391138</v>
+        <v>2047.521063804246</v>
       </c>
       <c r="V16" t="n">
-        <v>1861.518054261568</v>
+        <v>1760.565555674676</v>
       </c>
       <c r="W16" t="n">
-        <v>1589.49164984786</v>
+        <v>1488.539151260968</v>
       </c>
       <c r="X16" t="n">
-        <v>1344.099895181272</v>
+        <v>1243.147396594381</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.00317898765</v>
+        <v>1015.727725908489</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
         <v>1463.168637987181</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5601,19 +5603,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716205</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731432</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238804</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856366</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5671,52 +5673,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354732</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745699</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5753,19 +5755,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>926.893353805728</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2001.953320058587</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>3159.001155269138</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P20" t="n">
         <v>5113.042013538981</v>
@@ -5786,16 +5788,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -6072,10 +6074,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1765.500601749588</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>605.8694973157604</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1680.92946356862</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.977298779171</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3963.708282215618</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6406,19 +6408,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>3411.878090445059</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>3239.316378928283</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>3073.438386129806</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>2903.680382380544</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>2726.9733283423</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>3603.696709164046</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,22 +6946,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7014,19 +7016,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>751.6989919312866</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7123,22 +7125,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7175,31 +7177,31 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2048.574072823222</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1610.431600006645</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1174.52181518109</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1174.52181518109</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>746.6543855902976</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>345.2565542135614</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096956</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862319</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>1396.102936374607</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>1396.102936374607</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N41" t="n">
-        <v>1396.102936374607</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.667132127231</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085826</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.097680155899</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2547.097680155899</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2547.097680155899</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2127.95521673521</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2048.574072823222</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723525</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>226.895667218246</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>907.6291872886234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>907.6291872886234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>907.6291872886234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>907.6291872886234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>907.6291872886234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.2024157797618</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>571.6407042629868</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>405.7627114645095</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>236.0047077152468</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>221.71767463095</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>56.12639965677765</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677765</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1364.370191513475</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>926.2277186968979</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>490.3179338713425</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>56.54318902963765</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>56.54318902963765</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>56.54318902963765</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096956</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>1185.945282862319</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N44" t="n">
-        <v>1185.945282862319</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O44" t="n">
-        <v>1880.509478614942</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127231</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085826</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2550.985059589304</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2188.36810952313</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1783.512654934164</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>1364.370191513475</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1364.370191513475</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723525</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>620.0378019151628</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>620.0378019151628</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>450.2797981659001</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8055,31 +8057,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>112.1603739174598</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8216,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>577.1153547606267</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987002</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>138.4873165037805</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097206</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>673.2333292163985</v>
+        <v>500.2430848324439</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949870315</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,19 +8932,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097206</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>651.9316575406125</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9003,22 +9005,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>650.6234755151244</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>832.9621348837863</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9413,10 +9415,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9720,13 +9722,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>715.8552653209142</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10121,16 +10123,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>575.2670899541636</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>-5.468268590953371e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10361,13 +10363,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10662,22 +10664,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>328.1614411053482</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10823,16 +10825,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>903.3699580700795</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>212.2804580932207</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>274.84172772886</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>146.167267071728</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1050.672356668189</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>212.2804580932207</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314338</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>90.88489555337986</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>48.17580493063346</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>161.9268490649749</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>57.96961285132181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>33.2365282877805</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.2197249473465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>111.4236523045827</v>
       </c>
     </row>
     <row r="26">
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>161.9268490649745</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>44.28436272291282</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>325.6159299904753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>3.848505639070652</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>47.91312667565431</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>543845.7419234266</v>
+        <v>533868.5402772927</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>543845.7419234266</v>
+        <v>542323.4218928097</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>366857.9828296217</v>
+        <v>554270.1976493249</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366857.9828296218</v>
+        <v>554270.1976493249</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>554270.1976493248</v>
+        <v>554270.1976493249</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>554270.1976493248</v>
+        <v>554270.1976493249</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>366857.9828296218</v>
+        <v>554270.1976493249</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>366857.9828296219</v>
+        <v>554270.1976493249</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123267</v>
+        <v>428917.8559123269</v>
       </c>
       <c r="C2" t="n">
         <v>428917.8559123268</v>
@@ -26320,16 +26322,16 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>278971.391750566</v>
+        <v>421486.067309882</v>
       </c>
       <c r="F2" t="n">
-        <v>278971.3917505661</v>
+        <v>421486.067309882</v>
       </c>
       <c r="G2" t="n">
+        <v>421486.067309882</v>
+      </c>
+      <c r="H2" t="n">
         <v>421486.0673098819</v>
-      </c>
-      <c r="H2" t="n">
-        <v>421486.067309882</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
@@ -26350,10 +26352,10 @@
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>278971.3917505661</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="P2" t="n">
-        <v>278971.3917505661</v>
+        <v>421486.067309882</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045621</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340824</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148010.1942457891</v>
+        <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>148010.1942457891</v>
+        <v>154981.0317940155</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457891</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>36113.14695271198</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>36113.14695271198</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962271</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>36113.14695271204</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="P4" t="n">
-        <v>36113.14695271204</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17004.56147926497</v>
+        <v>33605.0874642302</v>
       </c>
       <c r="C6" t="n">
-        <v>206695.13710478</v>
+        <v>135392.8424152927</v>
       </c>
       <c r="D6" t="n">
-        <v>206695.1371047799</v>
+        <v>195167.5415547971</v>
       </c>
       <c r="E6" t="n">
-        <v>190031.1844582469</v>
+        <v>106850.8943734169</v>
       </c>
       <c r="F6" t="n">
-        <v>200202.1810587031</v>
+        <v>289206.0035944667</v>
       </c>
       <c r="G6" t="n">
-        <v>131146.5266483575</v>
+        <v>289206.0035944667</v>
       </c>
       <c r="H6" t="n">
+        <v>289206.0035944666</v>
+      </c>
+      <c r="I6" t="n">
+        <v>289206.0035944666</v>
+      </c>
+      <c r="J6" t="n">
+        <v>178191.5382494764</v>
+      </c>
+      <c r="K6" t="n">
+        <v>236160.1489556942</v>
+      </c>
+      <c r="L6" t="n">
+        <v>279813.7018678443</v>
+      </c>
+      <c r="M6" t="n">
+        <v>137005.832656479</v>
+      </c>
+      <c r="N6" t="n">
+        <v>289206.0035944666</v>
+      </c>
+      <c r="O6" t="n">
+        <v>289206.0035944666</v>
+      </c>
+      <c r="P6" t="n">
         <v>289206.0035944667</v>
-      </c>
-      <c r="I6" t="n">
-        <v>289206.0035944667</v>
-      </c>
-      <c r="J6" t="n">
-        <v>114554.6548767605</v>
-      </c>
-      <c r="K6" t="n">
-        <v>289206.0035944667</v>
-      </c>
-      <c r="L6" t="n">
-        <v>289206.0035944666</v>
-      </c>
-      <c r="M6" t="n">
-        <v>280716.9218911259</v>
-      </c>
-      <c r="N6" t="n">
-        <v>289206.0035944665</v>
-      </c>
-      <c r="O6" t="n">
-        <v>200202.181058703</v>
-      </c>
-      <c r="P6" t="n">
-        <v>200202.181058703</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186363</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750247</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186363</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186363</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750247</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>111.5243745049235</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>367.6387245651732</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>131.2385495991672</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.330165732437</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>337.3409526587818</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>329.2456520677164</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>80.50160915495955</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>71.70196325595424</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>367.6387245651729</v>
       </c>
     </row>
     <row r="9">
@@ -28065,10 +28067,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>197.1718905122107</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>197.171890512211</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.274919480332254e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.767469591757806e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>112.1603739174598</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34936,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,13 +35014,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>577.1153547606267</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987002</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35106,10 +35108,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>138.4873165037805</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097206</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>673.2333292163985</v>
+        <v>500.2430848324439</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949870315</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080414</v>
@@ -35580,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097206</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>651.9316575406125</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>650.6234755151244</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908445</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36056,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>832.9621348837863</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,13 +36132,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>715.8552653209142</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,16 +36843,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>575.2670899541636</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1.841590164177459e-13</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>328.1614411053482</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,16 +37545,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>903.3699580700795</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>212.2804580932207</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>274.84172772886</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>146.167267071728</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1050.672356668189</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>212.2804580932207</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702273.476646624</v>
+        <v>1701748.294277591</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216496</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916857</v>
+        <v>278692.0725916866</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6367567.494490374</v>
+        <v>6367567.494490372</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>310.5122002751352</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>36.31245239731272</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -724,7 +724,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.81530824659584</v>
+        <v>13.8523599663048</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.69562212127691</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>358.6997160404726</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>87.55881455681056</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.06158462964144</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>350.3346115241044</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1144,7 +1144,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>288.0957173526348</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1299,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1341,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>182.0577076400746</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>86.91406253606281</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800581</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932901</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1423,13 +1423,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>113.7218216744508</v>
+        <v>27.07950026194645</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.43699739329</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1669,7 +1669,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430768</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>158.8032091955084</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>124.4124267272028</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1846,10 +1846,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773017</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170844</v>
+        <v>24.34318456170436</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479130579</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561554</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>113.7218216744501</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>16.05512456153178</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>108.5103196251634</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>2.008513159456065</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>28.46824604904302</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3669,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>94.43123673214751</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022602</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.383853062969</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3903,13 +3903,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>120.1472970361153</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3954,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948845</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4033,7 +4033,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561545</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.2911052642175</v>
+        <v>1250.721030006719</v>
       </c>
       <c r="C2" t="n">
-        <v>521.1890364880448</v>
+        <v>1216.618961230546</v>
       </c>
       <c r="D2" t="n">
-        <v>489.3196557028934</v>
+        <v>788.0372869678147</v>
       </c>
       <c r="E2" t="n">
-        <v>459.5853149015927</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4342,10 +4342,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4372,10 +4372,10 @@
         <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1277.225916111165</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>1272.980196451223</v>
       </c>
     </row>
     <row r="3">
@@ -4409,13 +4409,13 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
         <v>1159.957753041174</v>
@@ -4424,10 +4424,10 @@
         <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.7016723508711</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="C4" t="n">
-        <v>203.7016723508711</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4494,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4518,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>679.1093267936133</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>433.7175721270257</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>395.5202910698582</v>
+        <v>173.8458429112338</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.990785889678</v>
+        <v>500.4187672127655</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.848313073101</v>
+        <v>466.3166984365928</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.97893228795</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.244591486649</v>
+        <v>74.25941213986519</v>
       </c>
       <c r="F5" t="n">
-        <v>741.3771618958569</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233708</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087174</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087174</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087174</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.787858087174</v>
+        <v>1181.86569471742</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717424</v>
+        <v>1181.86569471742</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762203</v>
+        <v>1805.966478762198</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720797</v>
+        <v>2352.465264720793</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657691</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657691</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="U5" t="n">
-        <v>2178.745152974708</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="V5" t="n">
-        <v>2178.745152974708</v>
+        <v>2159.002379407676</v>
       </c>
       <c r="W5" t="n">
-        <v>1773.889698385741</v>
+        <v>1754.146924818709</v>
       </c>
       <c r="X5" t="n">
-        <v>1758.787639005456</v>
+        <v>1335.00446139802</v>
       </c>
       <c r="Y5" t="n">
-        <v>1754.541919345513</v>
+        <v>926.7183376976733</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326461</v>
+        <v>92.16803877326453</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993469</v>
+        <v>76.49605974993459</v>
       </c>
       <c r="J6" t="n">
-        <v>401.054384716147</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>972.3985859291674</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>871.4687364409333</v>
+        <v>593.035735694034</v>
       </c>
       <c r="C7" t="n">
-        <v>698.9070249241582</v>
+        <v>420.4740241772589</v>
       </c>
       <c r="D7" t="n">
-        <v>533.0290321256809</v>
+        <v>254.5960313787816</v>
       </c>
       <c r="E7" t="n">
-        <v>444.5857850985996</v>
+        <v>84.83802762951885</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068801</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748412</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255754</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413399</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.91966063918</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609522</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179226</v>
+        <v>2500.201508179221</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477223</v>
+        <v>2340.960139477218</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055678</v>
+        <v>2095.080693055673</v>
       </c>
       <c r="U7" t="n">
-        <v>2095.080693055678</v>
+        <v>1816.647692308778</v>
       </c>
       <c r="V7" t="n">
-        <v>1808.125184926108</v>
+        <v>1529.692184179209</v>
       </c>
       <c r="W7" t="n">
-        <v>1536.0987805124</v>
+        <v>1257.6657797655</v>
       </c>
       <c r="X7" t="n">
-        <v>1290.707025845812</v>
+        <v>1012.274025098913</v>
       </c>
       <c r="Y7" t="n">
-        <v>1063.28735515992</v>
+        <v>784.8543544130212</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.144995079233</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.042926303061</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D8" t="n">
-        <v>800.1331414775053</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E8" t="n">
-        <v>366.3583966358005</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F8" t="n">
         <v>342.5313710854123</v>
@@ -4804,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4840,16 +4840,16 @@
         <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.221573682271</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>2047.406523133708</v>
+        <v>2119.832748644773</v>
       </c>
       <c r="X8" t="n">
-        <v>1628.264059713019</v>
+        <v>2104.730689264488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.018340053076</v>
+        <v>2100.484969604545</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
         <v>624.2616690759949</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2464.746330752886</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2186.313330005992</v>
       </c>
       <c r="V10" t="n">
-        <v>1877.297206906698</v>
+        <v>1899.357821876422</v>
       </c>
       <c r="W10" t="n">
-        <v>1605.270802492989</v>
+        <v>1627.331417462714</v>
       </c>
       <c r="X10" t="n">
-        <v>1359.879047826402</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y10" t="n">
-        <v>1132.45937714051</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E11" t="n">
         <v>1221.073045167952</v>
@@ -5038,55 +5038,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2093.658967439508</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5111,31 +5111,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3575.440564248063</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>3402.878852731288</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>3237.000859932811</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>3067.242856183548</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>2890.535802145304</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>2724.944527171132</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>2857.720543372007</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>4571.632850176916</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V13" t="n">
-        <v>4284.677342047346</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W13" t="n">
-        <v>4012.650937633638</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X13" t="n">
-        <v>3767.25918296705</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y13" t="n">
-        <v>3767.25918296705</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E14" t="n">
         <v>1221.073045167952</v>
@@ -5275,55 +5275,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.727725908489</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C16" t="n">
-        <v>843.1660143917137</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="D16" t="n">
-        <v>677.2880215932364</v>
+        <v>837.6953036089013</v>
       </c>
       <c r="E16" t="n">
-        <v>507.5300178439736</v>
+        <v>667.9372998596386</v>
       </c>
       <c r="F16" t="n">
-        <v>330.8229638057298</v>
+        <v>491.2302458213949</v>
       </c>
       <c r="G16" t="n">
         <v>330.8229638057298</v>
@@ -5433,13 +5433,13 @@
         <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2571.833510972685</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2325.954064551141</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2047.521063804246</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1760.565555674676</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1488.539151260968</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1243.147396594381</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1015.727725908489</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883955</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716205</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731432</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238804</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856366</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354732</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066088</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745699</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.67908147158</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.36663430314</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.41112617357</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.992967093275</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407383</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771587</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004225</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436388</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>926.893353805728</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2001.953320058587</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3159.001155269138</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4284.732138705585</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5785,19 +5785,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2702.703152636678</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6545,22 +6545,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6645,10 +6645,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T31" t="n">
         <v>2683.3639582443</v>
@@ -6703,19 +6703,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1021.77365348828</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2178.821488698831</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3304.552472135278</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3411.878090445059</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3239.316378928283</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3073.438386129806</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2903.680382380544</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2726.9733283423</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3603.696709164046</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883905</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716155</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731382</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>473.3149733731382</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>296.6079193348944</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>131.0166443607221</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>131.0166443607221</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7107,40 +7107,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173565</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093269</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,13 +7177,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>790.3368563937588</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>617.7751448769837</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>451.8971520785065</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7347,37 +7347,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878946</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176943</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755398</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2013.948813008503</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1726.993304878934</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1454.966900465225</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1209.575145798638</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>982.155475112746</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7399,10 +7399,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7411,52 +7411,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="F43" t="n">
         <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7602,19 +7602,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7639,46 +7639,46 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>3569.079287993933</v>
+        <v>3304.55247213528</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705586</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
         <v>4550.100609912873</v>
@@ -7718,10 +7718,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7797,19 +7797,19 @@
         <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7833,7 +7833,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
         <v>2454.80183470935</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8057,28 +8057,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558610882</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611109</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.1153547606267</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684635</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045987002</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238334</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>88.52591951400996</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>500.2430848324439</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>832.9621348837863</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,13 +10120,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10366,7 +10366,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>903.3699580700795</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11068,22 +11068,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>274.84172772886</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,25 +11302,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1050.672356668189</v>
+        <v>866.2895820207523</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>161.9268490649749</v>
+        <v>248.5691704774792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>5.132153028922176</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>33.2365282877805</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627222</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.951728247552637e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.148518520150059</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>161.9268490649745</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>59.3051036840284</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>73.6291869796226</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>54.79268646174603</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>542323.4218928097</v>
+        <v>542323.4218928096</v>
       </c>
     </row>
     <row r="4">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>554270.1976493249</v>
+        <v>554270.1976493248</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>554270.1976493249</v>
+        <v>554270.1976493248</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>428917.8559123268</v>
+      </c>
+      <c r="C2" t="n">
         <v>428917.8559123269</v>
-      </c>
-      <c r="C2" t="n">
-        <v>428917.8559123268</v>
       </c>
       <c r="D2" t="n">
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098817</v>
       </c>
       <c r="F2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="G2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
@@ -26346,16 +26346,16 @@
         <v>421486.0673098819</v>
       </c>
       <c r="M2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098817</v>
       </c>
       <c r="N2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098817</v>
       </c>
       <c r="O2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="P2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501615</v>
+        <v>66587.76789501577</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998278</v>
+        <v>11527.59554998315</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877251</v>
+        <v>53045.8546387722</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622321</v>
+        <v>9392.301726622623</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,46 +26420,46 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>154981.0317940155</v>
+        <v>154981.0317940157</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457892</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
+        <v>54561.82510962264</v>
+      </c>
+      <c r="F4" t="n">
+        <v>54561.82510962264</v>
+      </c>
+      <c r="G4" t="n">
+        <v>54561.82510962267</v>
+      </c>
+      <c r="H4" t="n">
+        <v>54561.82510962264</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="F4" t="n">
-        <v>54561.82510962277</v>
-      </c>
-      <c r="G4" t="n">
-        <v>54561.82510962276</v>
-      </c>
-      <c r="H4" t="n">
-        <v>54561.82510962276</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.8251096227</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962269</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962271</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962272</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800258</v>
+        <v>71956.2138080025</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26505,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33605.0874642302</v>
+        <v>33605.08746423008</v>
       </c>
       <c r="C6" t="n">
-        <v>135392.8424152927</v>
+        <v>135392.842415293</v>
       </c>
       <c r="D6" t="n">
-        <v>195167.5415547971</v>
+        <v>195167.5415547969</v>
       </c>
       <c r="E6" t="n">
-        <v>106850.8943734169</v>
+        <v>106827.6700340341</v>
       </c>
       <c r="F6" t="n">
-        <v>289206.0035944667</v>
+        <v>289182.7792550841</v>
       </c>
       <c r="G6" t="n">
-        <v>289206.0035944667</v>
+        <v>289182.779255084</v>
       </c>
       <c r="H6" t="n">
-        <v>289206.0035944666</v>
+        <v>289182.7792550839</v>
       </c>
       <c r="I6" t="n">
-        <v>289206.0035944666</v>
+        <v>289182.7792550839</v>
       </c>
       <c r="J6" t="n">
-        <v>178191.5382494764</v>
+        <v>178168.3139100937</v>
       </c>
       <c r="K6" t="n">
-        <v>236160.1489556942</v>
+        <v>236136.9246163118</v>
       </c>
       <c r="L6" t="n">
-        <v>279813.7018678443</v>
+        <v>279790.4775284613</v>
       </c>
       <c r="M6" t="n">
-        <v>137005.832656479</v>
+        <v>136982.6083170962</v>
       </c>
       <c r="N6" t="n">
-        <v>289206.0035944666</v>
+        <v>289182.7792550839</v>
       </c>
       <c r="O6" t="n">
-        <v>289206.0035944666</v>
+        <v>289182.779255084</v>
       </c>
       <c r="P6" t="n">
-        <v>289206.0035944667</v>
+        <v>289182.779255084</v>
       </c>
     </row>
   </sheetData>
@@ -26792,19 +26792,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26831,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.108974848358</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.108974848358</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.108974848358</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111.5243745049235</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>393.124544995975</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27545,7 +27545,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27554,7 +27554,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.330165732437</v>
+        <v>211.293114012728</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>337.3409526587818</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>72.85097093682731</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>80.50160915495955</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>140.8783988682199</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.70196325595424</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>112.7111826904422</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>61.36294431725472</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>197.171890512211</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,16 +28089,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-2.315144244895581e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,16 +28326,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-2.238524636591204e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28383,13 +28383,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28563,13 +28563,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.837330506675822e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28614,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-7.661960830437731e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-2.085285419982449e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.608435966426485e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30419,7 +30419,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-5.190518744971736e-12</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-8.546136710055909e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30753,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-1.198969812321593e-12</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34777,28 +34777,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558610882</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611109</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.1153547606267</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684635</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045987002</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238334</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>88.52591951400996</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>500.2430848324439</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080414</v>
@@ -35582,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908445</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36056,7 +36056,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>832.9621348837863</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37071,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37086,7 +37086,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37475,10 +37475,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795599</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37545,16 +37545,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>903.3699580700795</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37715,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512893</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>274.84172772886</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1050.672356668189</v>
+        <v>866.2895820207523</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
